--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex01_end.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex01_end.xlsx
@@ -340,7 +340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Specter"]   No, it's your smell. It's an intense, pungent smell... the smell of blood... "their" smell. The smell of the deep sea.
+    <t xml:space="preserve">[name="Specter"]   No, it's your smell. It's an intense, pungent smell... the smell of blood... 'their' smell. The smell of the deep sea.
 </t>
   </si>
   <si>
